--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2BA4BBA-E526-40F7-A49B-16ECEF689820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52EC046-C008-46B0-A786-00DE50439418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Day</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Total Days</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Basics, Normalization, SQL(DDL, DML, TCL)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dddd"/>
+    <numFmt numFmtId="164" formatCode="dddd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -284,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,11 +313,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -325,7 +342,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -338,13 +355,16 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,10 +695,11 @@
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>63</v>
       </c>
@@ -692,7 +713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>64</v>
       </c>
@@ -700,7 +721,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +743,14 @@
       <c r="G5" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="H5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>44816</v>
       </c>
@@ -746,8 +773,14 @@
       <c r="G6" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="H6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>44817</v>
       </c>
@@ -769,7 +802,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>44818</v>
       </c>
@@ -791,7 +824,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>44819</v>
       </c>
@@ -815,7 +848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>44820</v>
       </c>
@@ -839,7 +872,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44821</v>
       </c>
@@ -853,7 +886,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44822</v>
       </c>
@@ -867,7 +900,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>44823</v>
       </c>
@@ -889,7 +922,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>44824</v>
       </c>
@@ -911,7 +944,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>44825</v>
       </c>
@@ -933,7 +966,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>44826</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52EC046-C008-46B0-A786-00DE50439418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FA88FD-E305-4894-9AFD-868966F26E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FA88FD-E305-4894-9AFD-868966F26E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A6E6AE-5534-4A15-949B-BD9DA827A831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A6E6AE-5534-4A15-949B-BD9DA827A831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C87018-DB0B-4046-A479-C57746711ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Basics, Normalization, SQL(DDL, DML, TCL)</t>
+  </si>
+  <si>
+    <t>DCL, Select statement with all clauses, Set Operators</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,17 +314,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -363,9 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +673,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,14 +733,14 @@
       <c r="G5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>44816</v>
       </c>
@@ -776,7 +766,7 @@
       <c r="H6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="18">
         <v>1</v>
       </c>
     </row>
@@ -801,6 +791,12 @@
         <v>7</v>
       </c>
       <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -823,6 +819,8 @@
         <v>8</v>
       </c>
       <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -847,6 +845,8 @@
       <c r="G9" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -871,6 +871,8 @@
       <c r="G10" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C87018-DB0B-4046-A479-C57746711ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B6B73-4AB3-4180-8663-26B4EB663B2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>Day</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>DCL, Select statement with all clauses, Set Operators</t>
+  </si>
+  <si>
+    <t>Joins, Predefined functions, PL/SQL Basics, Procedures</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,8 +822,12 @@
         <v>8</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79B6B73-4AB3-4180-8663-26B4EB663B2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98590EA7-68BE-48C7-B723-E659E074FB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>DCL, Select statement with all clauses, Set Operators</t>
   </si>
   <si>
-    <t>Joins, Predefined functions, PL/SQL Basics, Procedures</t>
+    <t>Joins, Predefined functions, PL/SQL Basics, Procedures, Functions, Indexes, Views, Triggers</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>44818</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98590EA7-68BE-48C7-B723-E659E074FB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71E08D1-027E-4B73-961F-768F36B707E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Day</t>
   </si>
@@ -676,7 +676,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,8 +852,12 @@
       <c r="G9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="18">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD172779-2775-40B0-9657-A5A333F4925E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB83E89-96CC-4039-9F18-20BDDB7429AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,21 +1243,21 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>44839</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="14">
         <f t="shared" si="0"/>
         <v>44839</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69E294-4A37-43AF-8A79-DC2740B26AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB3E2E-5503-4AFC-9EDB-30F132AC7CC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <t>Fundas, Controll Statements, Arrays</t>
   </si>
   <si>
-    <t>Strings</t>
+    <t>Strings, OOPS Concept</t>
   </si>
 </sst>
 </file>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB3E2E-5503-4AFC-9EDB-30F132AC7CC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700434A-7C05-4AFC-BE4B-C337423BC6A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -365,6 +365,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,6 +945,12 @@
         <v>12</v>
       </c>
       <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700434A-7C05-4AFC-BE4B-C337423BC6A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8B143-CC45-4809-8FA0-AB50C9CC1EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -365,7 +365,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>44824</v>
       </c>
@@ -973,6 +973,12 @@
         <v>13</v>
       </c>
       <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8B143-CC45-4809-8FA0-AB50C9CC1EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842E3B1C-2D38-4869-AF8A-6CA96D98F7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -366,6 +366,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,8 +683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,6 +1005,12 @@
         <v>14</v>
       </c>
       <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842E3B1C-2D38-4869-AF8A-6CA96D98F7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66A6C5-74B5-41F6-9E93-5558288103C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -684,10 +684,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,6 +1033,9 @@
         <v>15</v>
       </c>
       <c r="G16" s="8"/>
+      <c r="I16" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66A6C5-74B5-41F6-9E93-5558288103C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37706F03-82C1-4C9A-B0D0-2CE540447C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -366,7 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,7 +686,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1007,7 @@
       <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>8</v>
       </c>
     </row>
@@ -1033,7 +1032,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="I16" s="20">
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19">
         <v>9</v>
       </c>
     </row>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37706F03-82C1-4C9A-B0D0-2CE540447C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF7807B-E850-42B3-BC3D-24968806EA48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -366,6 +366,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +687,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44827</v>
       </c>
@@ -1060,8 +1061,11 @@
         <v>16</v>
       </c>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>44828</v>
       </c>
@@ -1075,7 +1079,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>44829</v>
       </c>
@@ -1089,7 +1093,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>44830</v>
       </c>
@@ -1111,7 +1115,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44831</v>
       </c>
@@ -1133,7 +1137,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44832</v>
       </c>
@@ -1155,7 +1159,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44833</v>
       </c>
@@ -1177,7 +1181,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44834</v>
       </c>
@@ -1199,7 +1203,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>44835</v>
       </c>
@@ -1213,7 +1217,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>44836</v>
       </c>
@@ -1227,7 +1231,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>44837</v>
       </c>
@@ -1249,7 +1253,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>44838</v>
       </c>
@@ -1271,7 +1275,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44839</v>
       </c>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>44840</v>
       </c>
@@ -1309,7 +1313,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>44841</v>
       </c>
@@ -1331,7 +1335,7 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>44842</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF7807B-E850-42B3-BC3D-24968806EA48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04438F3C-4561-48AE-BC6E-969D0C1DCBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -687,7 +687,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44827</v>
       </c>
@@ -1061,6 +1061,9 @@
         <v>16</v>
       </c>
       <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="20">
         <v>10</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04438F3C-4561-48AE-BC6E-969D0C1DCBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D7E19-4B2B-431C-BD94-DB1C354C32A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -684,10 +684,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,6 +1117,9 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
+      <c r="I20" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D7E19-4B2B-431C-BD94-DB1C354C32A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C384C92-1CCC-487E-B245-A84ACD95F31E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Strings, OOPS Concept</t>
+  </si>
+  <si>
+    <t>Java Stream API and Lambda</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -325,11 +328,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -367,6 +379,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +699,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,6 +1132,9 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
+      <c r="H20" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="I20" s="20">
         <v>11</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C384C92-1CCC-487E-B245-A84ACD95F31E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4AE00-B2E0-4C63-9C8A-A81D95A457D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -252,7 +252,7 @@
     <t>Strings, OOPS Concept</t>
   </si>
   <si>
-    <t>Java Stream API and Lambda</t>
+    <t>Java Stream API and Lambda, Revision of Java</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>44830</v>
       </c>
@@ -1160,6 +1160,9 @@
         <v>20</v>
       </c>
       <c r="G21" s="8"/>
+      <c r="I21" s="20">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A22" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4AE00-B2E0-4C63-9C8A-A81D95A457D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F9832-05D2-4C57-83D1-35412A8985D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44831</v>
       </c>
@@ -1160,6 +1160,9 @@
         <v>20</v>
       </c>
       <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I21" s="20">
         <v>12</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F9832-05D2-4C57-83D1-35412A8985D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D890C-C6C0-4D02-A8B3-6603F56C3BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -699,10 +699,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D890C-C6C0-4D02-A8B3-6603F56C3BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8AFE8-4ED0-4C5F-AD6A-F0A7FD312501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -305,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -328,20 +328,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -378,10 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +686,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,6 +915,8 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -942,6 +931,8 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1079,7 +1070,7 @@
       <c r="H17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>10</v>
       </c>
     </row>
@@ -1096,6 +1087,8 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -1110,6 +1103,8 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1132,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1163,11 +1158,11 @@
       <c r="H21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44832</v>
       </c>
@@ -1188,6 +1183,12 @@
         <v>22</v>
       </c>
       <c r="G22" s="8"/>
+      <c r="H22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="19">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -1210,6 +1211,10 @@
         <v>23</v>
       </c>
       <c r="G23" s="8"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -1232,6 +1237,8 @@
         <v>24</v>
       </c>
       <c r="G24" s="8"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
@@ -1246,6 +1253,8 @@
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
@@ -1260,6 +1269,8 @@
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1282,6 +1293,8 @@
         <v>25</v>
       </c>
       <c r="G27" s="8"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1304,6 +1317,8 @@
         <v>26</v>
       </c>
       <c r="G28" s="8"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -1320,6 +1335,8 @@
         <v>18</v>
       </c>
       <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -1342,6 +1359,8 @@
         <v>27</v>
       </c>
       <c r="G30" s="8"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
@@ -1364,6 +1383,8 @@
         <v>29</v>
       </c>
       <c r="G31" s="8"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -1378,8 +1399,10 @@
       <c r="E32" s="15"/>
       <c r="F32" s="17"/>
       <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>44843</v>
       </c>
@@ -1392,8 +1415,10 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>44844</v>
       </c>
@@ -1416,8 +1441,10 @@
       <c r="G34" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>44845</v>
       </c>
@@ -1438,8 +1465,10 @@
         <v>32</v>
       </c>
       <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>44846</v>
       </c>
@@ -1460,8 +1489,10 @@
         <v>33</v>
       </c>
       <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>44847</v>
       </c>
@@ -1482,8 +1513,10 @@
         <v>35</v>
       </c>
       <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>44848</v>
       </c>
@@ -1504,8 +1537,10 @@
         <v>36</v>
       </c>
       <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>44849</v>
       </c>
@@ -1518,8 +1553,10 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>44850</v>
       </c>
@@ -1532,8 +1569,10 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>44851</v>
       </c>
@@ -1556,8 +1595,10 @@
       <c r="G41" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>44852</v>
       </c>
@@ -1580,8 +1621,10 @@
       <c r="G42" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>44853</v>
       </c>
@@ -1602,8 +1645,10 @@
         <v>39</v>
       </c>
       <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>44854</v>
       </c>
@@ -1624,8 +1669,10 @@
         <v>41</v>
       </c>
       <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44855</v>
       </c>
@@ -1646,8 +1693,10 @@
         <v>42</v>
       </c>
       <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>44856</v>
       </c>
@@ -1660,8 +1709,10 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>44857</v>
       </c>
@@ -1674,8 +1725,10 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>44858</v>
       </c>
@@ -1690,8 +1743,10 @@
         <v>18</v>
       </c>
       <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>44859</v>
       </c>
@@ -1712,8 +1767,10 @@
         <v>43</v>
       </c>
       <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>44860</v>
       </c>
@@ -1728,8 +1785,10 @@
         <v>18</v>
       </c>
       <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>44861</v>
       </c>
@@ -1752,8 +1811,10 @@
       <c r="G51" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>44862</v>
       </c>
@@ -1776,8 +1837,10 @@
       <c r="G52" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>44863</v>
       </c>
@@ -1790,8 +1853,10 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>44864</v>
       </c>
@@ -1804,8 +1869,10 @@
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>44865</v>
       </c>
@@ -1828,8 +1895,10 @@
       <c r="G55" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>44866</v>
       </c>
@@ -1844,8 +1913,10 @@
         <v>18</v>
       </c>
       <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" s="13" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" s="13" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>44867</v>
       </c>
@@ -1866,8 +1937,10 @@
         <v>60</v>
       </c>
       <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>44868</v>
       </c>
@@ -1888,8 +1961,10 @@
         <v>61</v>
       </c>
       <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>44869</v>
       </c>
@@ -1910,8 +1985,10 @@
         <v>61</v>
       </c>
       <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>44870</v>
       </c>
@@ -1924,8 +2001,10 @@
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
       <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>44871</v>
       </c>
@@ -1938,8 +2017,10 @@
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
       <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>44872</v>
       </c>
@@ -1960,8 +2041,10 @@
         <v>61</v>
       </c>
       <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>44873</v>
       </c>
@@ -1982,6 +2065,8 @@
         <v>61</v>
       </c>
       <c r="G63" s="8"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8AFE8-4ED0-4C5F-AD6A-F0A7FD312501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381F4DD-63EE-4CEB-B618-48AEF8FDE178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -686,10 +686,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381F4DD-63EE-4CEB-B618-48AEF8FDE178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B48F1-331A-4150-A324-9C95F69770EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Java Stream API and Lambda, Revision of Java</t>
+  </si>
+  <si>
+    <t>Java Servlets</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1214,9 @@
         <v>23</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="19">
         <v>14</v>
       </c>
@@ -1238,7 +1243,9 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B48F1-331A-4150-A324-9C95F69770EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399DEE68-EFD5-4066-96D6-7A2E9AAE71E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -692,7 +692,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,7 +1242,9 @@
         <v>24</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="I24" s="18">
         <v>15</v>
       </c>
@@ -1301,7 +1303,9 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A28" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399DEE68-EFD5-4066-96D6-7A2E9AAE71E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650116C0-374D-4590-B6D4-FC1C84685CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -686,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,6 +705,7 @@
     <col min="6" max="6" width="25.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1413,7 +1414,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>44843</v>
       </c>
@@ -1429,7 +1430,7 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>44844</v>
       </c>
@@ -1455,7 +1456,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>44845</v>
       </c>
@@ -1479,7 +1480,7 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>44846</v>
       </c>
@@ -1503,7 +1504,7 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>44847</v>
       </c>
@@ -1527,7 +1528,7 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>44848</v>
       </c>
@@ -1551,7 +1552,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>44849</v>
       </c>
@@ -1567,7 +1568,7 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>44850</v>
       </c>
@@ -1583,7 +1584,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>44851</v>
       </c>
@@ -1608,8 +1609,11 @@
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="K41" s="1">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>44852</v>
       </c>
@@ -1635,7 +1639,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>44853</v>
       </c>
@@ -1659,7 +1663,7 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>44854</v>
       </c>
@@ -1683,7 +1687,7 @@
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44855</v>
       </c>
@@ -1707,7 +1711,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>44856</v>
       </c>
@@ -1723,7 +1727,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>44857</v>
       </c>
@@ -1739,7 +1743,7 @@
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>44858</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650116C0-374D-4590-B6D4-FC1C84685CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547AFB8D-949A-4E90-8A92-6A2A72FD7606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Day</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Java Servlets</t>
+  </si>
+  <si>
+    <t>Auto-wiring, Spring MVC</t>
+  </si>
+  <si>
+    <t>Spring boot MVC</t>
+  </si>
+  <si>
+    <t>Spring Boot REST</t>
   </si>
 </sst>
 </file>
@@ -686,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A0E945-0B94-4885-B8DE-AD68AFFD6D0C}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1312,9 @@
         <v>25</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="I27" s="18">
         <v>16</v>
       </c>
@@ -1329,8 +1340,12 @@
         <v>26</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="H28" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="18">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -1371,8 +1386,12 @@
         <v>27</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="18">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
@@ -1609,9 +1628,7 @@
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
-      <c r="K41" s="1">
-        <v>44837</v>
-      </c>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -2083,6 +2100,9 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547AFB8D-949A-4E90-8A92-6A2A72FD7606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9611463-4AFE-428C-95C5-7C7EBACE7512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -698,10 +698,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9611463-4AFE-428C-95C5-7C7EBACE7512}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D65217-ACCE-499D-A4FB-E7A6A526072F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>Day</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Spring Boot REST</t>
+  </si>
+  <si>
+    <t>Environment, Directories, Files, Pipes &amp; Filters</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,8 +1417,12 @@
         <v>29</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="H31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="18">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -1473,7 +1480,9 @@
         <v>53</v>
       </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D65217-ACCE-499D-A4FB-E7A6A526072F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FA9EB-5BBA-429A-9841-86D59D15E91D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>Day</t>
   </si>
@@ -267,7 +267,7 @@
     <t>Spring Boot REST</t>
   </si>
   <si>
-    <t>Environment, Directories, Files, Pipes &amp; Filters</t>
+    <t>Swagger, Environment, Directories, Files, Pipes &amp; Filters, Shell Scripting, Variables</t>
   </si>
 </sst>
 </file>
@@ -701,10 +701,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,7 @@
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" style="13" customWidth="1"/>
     <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>44818</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>44824</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44827</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1119,10 +1119,10 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>44830</v>
       </c>
@@ -1143,14 +1143,14 @@
         <v>17</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44831</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44832</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="19">
@@ -1275,7 +1275,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="9" t="s">
         <v>74</v>
       </c>
       <c r="I27" s="18">
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="9" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="18">
@@ -1365,7 +1365,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1389,14 +1389,14 @@
         <v>27</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I30" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>44841</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="11" t="s">
         <v>77</v>
       </c>
       <c r="I31" s="18">
@@ -1437,7 +1437,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="17"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,9 @@
       <c r="G34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I34" s="18">
         <v>20</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="18"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -1529,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="8"/>
-      <c r="H36" s="18"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -1553,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="18"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -1577,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="18"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1593,7 +1595,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="18"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1609,7 +1611,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="18"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -1635,7 +1637,7 @@
       <c r="G41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="18"/>
       <c r="K41" s="1"/>
     </row>
@@ -1662,7 +1664,7 @@
       <c r="G42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
@@ -1686,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="8"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -1710,7 +1712,7 @@
         <v>41</v>
       </c>
       <c r="G44" s="8"/>
-      <c r="H44" s="18"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:11" ht="27" x14ac:dyDescent="0.3">
@@ -1734,7 +1736,7 @@
         <v>42</v>
       </c>
       <c r="G45" s="8"/>
-      <c r="H45" s="18"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1750,7 +1752,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="18"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1766,7 +1768,7 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="18"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1784,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="15"/>
-      <c r="H48" s="18"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1808,7 +1810,7 @@
         <v>43</v>
       </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="18"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -1826,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="15"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1852,7 +1854,7 @@
       <c r="G51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="18"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -1878,7 +1880,7 @@
       <c r="G52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="18"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -1894,7 +1896,7 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="18"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -1910,7 +1912,7 @@
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="18"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -1936,7 +1938,7 @@
       <c r="G55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="18"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1954,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="15"/>
-      <c r="H56" s="18"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" s="13" customFormat="1" ht="93" x14ac:dyDescent="0.3">
@@ -1978,7 +1980,7 @@
         <v>60</v>
       </c>
       <c r="G57" s="8"/>
-      <c r="H57" s="18"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2002,7 +2004,7 @@
         <v>61</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="18"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2026,7 +2028,7 @@
         <v>61</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="18"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2042,7 +2044,7 @@
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2058,7 +2060,7 @@
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2082,7 +2084,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="8"/>
-      <c r="H62" s="18"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2106,7 +2108,7 @@
         <v>61</v>
       </c>
       <c r="G63" s="8"/>
-      <c r="H63" s="18"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="18"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.3">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72FA9EB-5BBA-429A-9841-86D59D15E91D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AA556-BEB5-4783-B12E-93F69CF5029A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Day</t>
   </si>
@@ -701,10 +701,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,8 +1507,12 @@
         <v>32</v>
       </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="18"/>
+      <c r="H35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="18">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AA556-BEB5-4783-B12E-93F69CF5029A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A383E2-C6B2-4F2A-AF99-59DDC3B6CC4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Day</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Swagger, Environment, Directories, Files, Pipes &amp; Filters, Shell Scripting, Variables</t>
+  </si>
+  <si>
+    <t>Basics of prog., control statements, arrays, strings, functions, pointers</t>
+  </si>
+  <si>
+    <t>structures, files</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>44845</v>
       </c>
@@ -1508,7 +1514,7 @@
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="9" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I35" s="18">
         <v>21</v>
@@ -1535,8 +1541,12 @@
         <v>33</v>
       </c>
       <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="18">
+        <v>22</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A37" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A383E2-C6B2-4F2A-AF99-59DDC3B6CC4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30734036-D1BB-492D-9AF4-B67F266F4056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -710,7 +710,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30734036-D1BB-492D-9AF4-B67F266F4056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239524B-D843-40F5-B677-73A95AFD1889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <t>Basics of prog., control statements, arrays, strings, functions, pointers</t>
   </si>
   <si>
-    <t>structures, files</t>
+    <t>structures, files, What is a proc c, compilation process, Directory Structure</t>
   </si>
 </sst>
 </file>
@@ -707,10 +707,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>44846</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239524B-D843-40F5-B677-73A95AFD1889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3EA45-A131-42B1-A2A3-4B243FA098D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Day</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>structures, files, What is a proc c, compilation process, Directory Structure</t>
+  </si>
+  <si>
+    <t>HTML CSS Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,8 +1572,12 @@
         <v>35</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="18"/>
+      <c r="H37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="18">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A38" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3EA45-A131-42B1-A2A3-4B243FA098D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A186A94F-3E22-4916-B387-8A792364724F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Day</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>HTML CSS Bootstrap</t>
+  </si>
+  <si>
+    <t>Javascript &amp; Jquery</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +729,7 @@
     <col min="6" max="6" width="25.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1600,8 +1603,12 @@
         <v>36</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="18"/>
+      <c r="H38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="18">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
@@ -1682,7 +1689,7 @@
       <c r="F42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H42" s="9"/>
@@ -1810,7 +1817,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>44859</v>
       </c>
@@ -1834,7 +1841,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>44860</v>
       </c>
@@ -1852,7 +1859,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>44861</v>
       </c>
@@ -1877,8 +1884,11 @@
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="J51" s="1">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>44862</v>
       </c>
@@ -1904,7 +1914,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>44863</v>
       </c>
@@ -1920,7 +1930,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>44864</v>
       </c>
@@ -1936,7 +1946,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>44865</v>
       </c>
@@ -1962,7 +1972,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>44866</v>
       </c>
@@ -1980,7 +1990,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" s="13" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="13" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>44867</v>
       </c>
@@ -2004,7 +2014,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>44868</v>
       </c>
@@ -2028,7 +2038,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>44869</v>
       </c>
@@ -2052,7 +2062,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>44870</v>
       </c>
@@ -2068,7 +2078,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>44871</v>
       </c>
@@ -2084,7 +2094,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>44872</v>
       </c>
@@ -2108,7 +2118,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>44873</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A186A94F-3E22-4916-B387-8A792364724F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360619D-43EA-4778-8C5D-58642835CA19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>Day</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Javascript &amp; Jquery</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
@@ -1665,8 +1668,12 @@
       <c r="G41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="18">
+        <v>25</v>
+      </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="79.8" x14ac:dyDescent="0.3">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360619D-43EA-4778-8C5D-58642835CA19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD10E6-C04A-444A-8341-A38EE49CC4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Day</t>
   </si>
@@ -282,7 +282,10 @@
     <t>Javascript &amp; Jquery</t>
   </si>
   <si>
-    <t>SonarQube</t>
+    <t>SonarQube, Typescript</t>
+  </si>
+  <si>
+    <t>Angular Js vs Angular, Modules, Components</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,8 +1702,12 @@
       <c r="G42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="18"/>
+      <c r="H42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="18">
+        <v>26</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD10E6-C04A-444A-8341-A38EE49CC4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706B245-F690-43A7-A0E7-43F65A0001AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <t>SonarQube, Typescript</t>
   </si>
   <si>
-    <t>Angular Js vs Angular, Modules, Components</t>
+    <t>Angular Js vs Angular, Modules, Components, Services</t>
   </si>
 </sst>
 </file>
@@ -719,10 +719,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1731,9 @@
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="18">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A44" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706B245-F690-43A7-A0E7-43F65A0001AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFAD0E-5016-44D7-BB6A-526A7B162C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>Day</t>
   </si>
@@ -285,7 +285,10 @@
     <t>SonarQube, Typescript</t>
   </si>
   <si>
-    <t>Angular Js vs Angular, Modules, Components, Services</t>
+    <t>Angular Js vs Angular, Modules, Components, Services, Pipes, Custom Pipes</t>
+  </si>
+  <si>
+    <t>Observables, Validations, Custom validations, Routing</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1733,9 @@
         <v>39</v>
       </c>
       <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="I43" s="18">
         <v>27</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFAD0E-5016-44D7-BB6A-526A7B162C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FAEE76-E0DE-4E90-9861-3B0226AB4C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>Day</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Observables, Validations, Custom validations, Routing</t>
+  </si>
+  <si>
+    <t>Spring MVC Form validation, ReactJs introduction</t>
   </si>
 </sst>
 </file>
@@ -722,10 +725,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,8 +1764,12 @@
         <v>41</v>
       </c>
       <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="18"/>
+      <c r="H44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="18">
+        <v>28</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FAEE76-E0DE-4E90-9861-3B0226AB4C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7306028B-ABF9-4AB7-86CA-A5701AC04197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Day</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Spring MVC Form validation, ReactJs introduction</t>
+  </si>
+  <si>
+    <t>Classes, Props, State</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,8 +1795,12 @@
         <v>42</v>
       </c>
       <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="18"/>
+      <c r="H45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="18">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="12">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7306028B-ABF9-4AB7-86CA-A5701AC04197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1D985-4E00-481B-A031-E4A18D82EAEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <t>Spring MVC Form validation, ReactJs introduction</t>
   </si>
   <si>
-    <t>Classes, Props, State</t>
+    <t>Classes, Props, State, Events, Forms</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1D985-4E00-481B-A031-E4A18D82EAEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD3AB0-C0FC-47B2-BBDB-E8B4E243862D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>Day</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Classes, Props, State, Events, Forms</t>
+  </si>
+  <si>
+    <t>Angular installation, Docker Installation and Angular+Spring integrationa and creating docker image and push to hub.docker.com</t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1855,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>44859</v>
       </c>
@@ -1873,8 +1876,12 @@
         <v>43</v>
       </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="18"/>
+      <c r="H49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" s="18">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="12">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD3AB0-C0FC-47B2-BBDB-E8B4E243862D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6565F429-57A4-4BE7-90E6-67C2D739AC41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>Day</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Angular installation, Docker Installation and Angular+Spring integrationa and creating docker image and push to hub.docker.com</t>
+  </si>
+  <si>
+    <t>Pro *C, React routers, CSS Styling, Docker network</t>
   </si>
 </sst>
 </file>
@@ -731,10 +734,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,8 +1927,12 @@
       <c r="G51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="18">
+        <v>31</v>
+      </c>
       <c r="J51" s="1">
         <v>44847</v>
       </c>

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6565F429-57A4-4BE7-90E6-67C2D739AC41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E9D00-F364-4B43-B937-17B2EB82384C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Day</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Pro *C, React routers, CSS Styling, Docker network</t>
+  </si>
+  <si>
+    <t>ReactJs, Cloud computing, types of Cloud, Advantages, Disadvantages, deployig spring boot rest api in Elastic beanstalk</t>
+  </si>
+  <si>
+    <t>AWS EC2</t>
   </si>
 </sst>
 </file>
@@ -737,7 +743,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,7 +1943,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>44862</v>
       </c>
@@ -1960,8 +1966,12 @@
       <c r="G52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="18"/>
+      <c r="H52" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="18">
+        <v>32</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
@@ -2018,8 +2028,12 @@
       <c r="G55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="18"/>
+      <c r="H55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="18">
+        <v>33</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E9D00-F364-4B43-B937-17B2EB82384C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE68E57-78DF-460E-A3F7-07ED0108F75E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -306,7 +306,7 @@
     <t>ReactJs, Cloud computing, types of Cloud, Advantages, Disadvantages, deployig spring boot rest api in Elastic beanstalk</t>
   </si>
   <si>
-    <t>AWS EC2</t>
+    <t>Deploying docker images to AWS EC2</t>
   </si>
 </sst>
 </file>
@@ -740,10 +740,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,7 +2005,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>44865</v>
       </c>
@@ -2075,7 +2075,9 @@
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="18"/>
+      <c r="I57" s="18">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">

--- a/TOC_Jag_38_days_v1.xlsx
+++ b/TOC_Jag_38_days_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE68E57-78DF-460E-A3F7-07ED0108F75E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5D0FC-A72C-4471-8E1D-8B7EF6799D1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63FBB817-78C8-47B4-911E-70C3BDA47F11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>Day</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>Deploying docker images to AWS EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo on Spring boot MVC + Spring boot REST API. Customer, Merchant, Product, Sale </t>
+  </si>
+  <si>
+    <t>Project day 1. Demo for Merchantwise Products</t>
+  </si>
+  <si>
+    <t>Project day 2</t>
+  </si>
+  <si>
+    <t>Project day 3</t>
   </si>
 </sst>
 </file>
@@ -740,10 +752,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2074,12 +2086,14 @@
         <v>60</v>
       </c>
       <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="I57" s="18">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>44868</v>
       </c>
@@ -2100,8 +2114,12 @@
         <v>61</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="18"/>
+      <c r="H58" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="18">
+        <v>35</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
@@ -2124,8 +2142,12 @@
         <v>61</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="18"/>
+      <c r="H59" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="18">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
@@ -2180,8 +2202,12 @@
         <v>61</v>
       </c>
       <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="18"/>
+      <c r="H62" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="18">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
